--- a/Code/Results/Cases/Case_0_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9582055998516616</v>
+        <v>1.026905519074363</v>
       </c>
       <c r="D2">
-        <v>0.9684475081032782</v>
+        <v>1.034161649376047</v>
       </c>
       <c r="E2">
-        <v>0.9704583394472469</v>
+        <v>1.027069699967144</v>
       </c>
       <c r="F2">
-        <v>0.9550144872146878</v>
+        <v>1.040269403592229</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032058967393589</v>
+        <v>1.02520380891933</v>
       </c>
       <c r="J2">
-        <v>0.9817125164724582</v>
+        <v>1.032066356648624</v>
       </c>
       <c r="K2">
-        <v>0.9803646529988583</v>
+        <v>1.036961917775336</v>
       </c>
       <c r="L2">
-        <v>0.9823451778539496</v>
+        <v>1.029890503051378</v>
       </c>
       <c r="M2">
-        <v>0.9671382762523454</v>
+        <v>1.04305223070588</v>
       </c>
       <c r="N2">
-        <v>0.9831066608498485</v>
+        <v>1.033532009254746</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9677938621631738</v>
+        <v>1.028391146146689</v>
       </c>
       <c r="D3">
-        <v>0.97806477988868</v>
+        <v>1.035591938284478</v>
       </c>
       <c r="E3">
-        <v>0.9783822303927275</v>
+        <v>1.028341937396994</v>
       </c>
       <c r="F3">
-        <v>0.9684354668990092</v>
+        <v>1.042024406689247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035953496264794</v>
+        <v>1.025406818414385</v>
       </c>
       <c r="J3">
-        <v>0.9892027378249525</v>
+        <v>1.033189186684463</v>
       </c>
       <c r="K3">
-        <v>0.9889862388736379</v>
+        <v>1.038199682250761</v>
       </c>
       <c r="L3">
-        <v>0.9892993969999309</v>
+        <v>1.030969131476395</v>
       </c>
       <c r="M3">
-        <v>0.9794888141545729</v>
+        <v>1.044615138637505</v>
       </c>
       <c r="N3">
-        <v>0.9906075191758038</v>
+        <v>1.034656433838012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9736073357612288</v>
+        <v>1.029344449228114</v>
       </c>
       <c r="D4">
-        <v>0.9838594390008163</v>
+        <v>1.036507257230878</v>
       </c>
       <c r="E4">
-        <v>0.9831910687329627</v>
+        <v>1.029158642315391</v>
       </c>
       <c r="F4">
-        <v>0.9764319906574506</v>
+        <v>1.043141095417076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038208437063141</v>
+        <v>1.025527838821604</v>
       </c>
       <c r="J4">
-        <v>0.9937111422387174</v>
+        <v>1.033907421830326</v>
       </c>
       <c r="K4">
-        <v>0.9941566505930595</v>
+        <v>1.038989939803724</v>
       </c>
       <c r="L4">
-        <v>0.9934966874658553</v>
+        <v>1.031660032118447</v>
       </c>
       <c r="M4">
-        <v>0.9868234371073946</v>
+        <v>1.045607134151081</v>
       </c>
       <c r="N4">
-        <v>0.9951223260409575</v>
+        <v>1.035375688960164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9759694771505918</v>
+        <v>1.029743328404619</v>
       </c>
       <c r="D5">
-        <v>0.9862060913765672</v>
+        <v>1.036889649017363</v>
       </c>
       <c r="E5">
-        <v>0.9851460863583237</v>
+        <v>1.02950044509972</v>
       </c>
       <c r="F5">
-        <v>0.979650649048198</v>
+        <v>1.043606066307424</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039100507435175</v>
+        <v>1.025576248777343</v>
       </c>
       <c r="J5">
-        <v>0.9955357660899475</v>
+        <v>1.034207399765616</v>
       </c>
       <c r="K5">
-        <v>0.9962450371898338</v>
+        <v>1.039319638050143</v>
       </c>
       <c r="L5">
-        <v>0.995197958829926</v>
+        <v>1.031948819758312</v>
       </c>
       <c r="M5">
-        <v>0.9897700961239719</v>
+        <v>1.046019586661673</v>
       </c>
       <c r="N5">
-        <v>0.9969495410673439</v>
+        <v>1.03567609289853</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9763615813255716</v>
+        <v>1.029810191881047</v>
       </c>
       <c r="D6">
-        <v>0.9865951842327945</v>
+        <v>1.03695371382193</v>
       </c>
       <c r="E6">
-        <v>0.9854706734324368</v>
+        <v>1.029557745560343</v>
       </c>
       <c r="F6">
-        <v>0.9801832150043501</v>
+        <v>1.043683875172294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039247196346641</v>
+        <v>1.025584232580588</v>
       </c>
       <c r="J6">
-        <v>0.9958382351494722</v>
+        <v>1.034257652573288</v>
       </c>
       <c r="K6">
-        <v>0.9965909946893333</v>
+        <v>1.039374848428394</v>
       </c>
       <c r="L6">
-        <v>0.9954801255383218</v>
+        <v>1.03199721126431</v>
       </c>
       <c r="M6">
-        <v>0.9902573322800159</v>
+        <v>1.046088571668833</v>
       </c>
       <c r="N6">
-        <v>0.9972524396676264</v>
+        <v>1.035726417070953</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9736392069704699</v>
+        <v>1.029349786462355</v>
       </c>
       <c r="D7">
-        <v>0.9838911314513118</v>
+        <v>1.036512376195754</v>
       </c>
       <c r="E7">
-        <v>0.9832174425212339</v>
+        <v>1.029163215525029</v>
       </c>
       <c r="F7">
-        <v>0.9764755361663919</v>
+        <v>1.043147325947278</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03822056804497</v>
+        <v>1.025528495360574</v>
       </c>
       <c r="J7">
-        <v>0.9937357890487296</v>
+        <v>1.033911437855223</v>
       </c>
       <c r="K7">
-        <v>0.9941848764375966</v>
+        <v>1.038994355139646</v>
       </c>
       <c r="L7">
-        <v>0.99351965806334</v>
+        <v>1.031663897437656</v>
       </c>
       <c r="M7">
-        <v>0.986863324796398</v>
+        <v>1.045612663314417</v>
       </c>
       <c r="N7">
-        <v>0.9951470078522671</v>
+        <v>1.035379710688278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9615349512124076</v>
+        <v>1.027409265013405</v>
       </c>
       <c r="D8">
-        <v>0.9717954463106256</v>
+        <v>1.034647145644525</v>
       </c>
       <c r="E8">
-        <v>0.9732088057900058</v>
+        <v>1.027501020740754</v>
       </c>
       <c r="F8">
-        <v>0.9597074677826778</v>
+        <v>1.040866458685719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033435257329252</v>
+        <v>1.02527456339692</v>
       </c>
       <c r="J8">
-        <v>0.9843209869467683</v>
+        <v>1.032447556515343</v>
       </c>
       <c r="K8">
-        <v>0.9833715231564102</v>
+        <v>1.037382449024848</v>
       </c>
       <c r="L8">
-        <v>0.98476434075497</v>
+        <v>1.030256501106087</v>
       </c>
       <c r="M8">
-        <v>0.971462378037063</v>
+        <v>1.043584446363668</v>
       </c>
       <c r="N8">
-        <v>0.9857188356514277</v>
+        <v>1.033913750468985</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9364550280409961</v>
+        <v>1.023927381277334</v>
       </c>
       <c r="D9">
-        <v>0.9463438358379783</v>
+        <v>1.031281148341646</v>
       </c>
       <c r="E9">
-        <v>0.9525087599783865</v>
+        <v>1.024521130930631</v>
       </c>
       <c r="F9">
-        <v>0.9234742934594439</v>
+        <v>1.036700321057757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022472848128587</v>
+        <v>1.024747470173962</v>
       </c>
       <c r="J9">
-        <v>0.9644701012716267</v>
+        <v>1.029803328294307</v>
       </c>
       <c r="K9">
-        <v>0.9603718794247782</v>
+        <v>1.034459196853044</v>
       </c>
       <c r="L9">
-        <v>0.9664224003785853</v>
+        <v>1.027721614638217</v>
       </c>
       <c r="M9">
-        <v>0.9379442799927308</v>
+        <v>1.039860615989295</v>
       </c>
       <c r="N9">
-        <v>0.9658397594416992</v>
+        <v>1.031265767140578</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9153968713564987</v>
+        <v>1.021562386895395</v>
       </c>
       <c r="D10">
-        <v>0.924518616247006</v>
+        <v>1.02898194250757</v>
       </c>
       <c r="E10">
-        <v>0.9351451471878234</v>
+        <v>1.022498880460239</v>
       </c>
       <c r="F10">
-        <v>0.8913544700269678</v>
+        <v>1.033820966908499</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012232105397479</v>
+        <v>1.024341834801052</v>
       </c>
       <c r="J10">
-        <v>0.9474216225389933</v>
+        <v>1.027995487332851</v>
       </c>
       <c r="K10">
-        <v>0.940398962027357</v>
+        <v>1.03245280460864</v>
       </c>
       <c r="L10">
-        <v>0.9507931790743338</v>
+        <v>1.025993420788633</v>
       </c>
       <c r="M10">
-        <v>0.908007825351804</v>
+        <v>1.03727436901979</v>
       </c>
       <c r="N10">
-        <v>0.9487670699137777</v>
+        <v>1.029455358837595</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9042953504496318</v>
+        <v>1.020527524682096</v>
       </c>
       <c r="D11">
-        <v>0.9128123606966437</v>
+        <v>1.027972800001205</v>
       </c>
       <c r="E11">
-        <v>0.9259871636639029</v>
+        <v>1.021614421518891</v>
       </c>
       <c r="F11">
-        <v>0.8736932864738584</v>
+        <v>1.032549244471438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006435506775825</v>
+        <v>1.024153144712362</v>
       </c>
       <c r="J11">
-        <v>0.9382729032310807</v>
+        <v>1.027201625419682</v>
       </c>
       <c r="K11">
-        <v>0.9295897785974949</v>
+        <v>1.031569919061869</v>
       </c>
       <c r="L11">
-        <v>0.9424542174683094</v>
+        <v>1.02523568709829</v>
       </c>
       <c r="M11">
-        <v>0.8914674300294602</v>
+        <v>1.036129187870147</v>
       </c>
       <c r="N11">
-        <v>0.9396053583750751</v>
+        <v>1.028660369549451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8996701064839523</v>
+        <v>1.020141469608562</v>
       </c>
       <c r="D12">
-        <v>0.9078876544307191</v>
+        <v>1.027595878143046</v>
       </c>
       <c r="E12">
-        <v>0.9221689906757667</v>
+        <v>1.021284539011665</v>
       </c>
       <c r="F12">
-        <v>0.8661651826838932</v>
+        <v>1.032073053776738</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.003932365250179</v>
+        <v>1.024081079320785</v>
       </c>
       <c r="J12">
-        <v>0.9344238139014635</v>
+        <v>1.026905055365416</v>
       </c>
       <c r="K12">
-        <v>0.9250213568571894</v>
+        <v>1.031239816524591</v>
       </c>
       <c r="L12">
-        <v>0.9389563621231206</v>
+        <v>1.024952786681808</v>
       </c>
       <c r="M12">
-        <v>0.8844002721924118</v>
+        <v>1.035699947316765</v>
       </c>
       <c r="N12">
-        <v>0.9357508028971131</v>
+        <v>1.028363378331691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9006911363657908</v>
+        <v>1.020224355534016</v>
       </c>
       <c r="D13">
-        <v>0.9089773669389507</v>
+        <v>1.027676824055171</v>
       </c>
       <c r="E13">
-        <v>0.9230120379726175</v>
+        <v>1.021355361769168</v>
       </c>
       <c r="F13">
-        <v>0.8678361769976909</v>
+        <v>1.032175372143831</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004489606608911</v>
+        <v>1.024096627370096</v>
       </c>
       <c r="J13">
-        <v>0.9352755233651673</v>
+        <v>1.026968747881103</v>
       </c>
       <c r="K13">
-        <v>0.9260333403802899</v>
+        <v>1.031310723036918</v>
       </c>
       <c r="L13">
-        <v>0.9397297990576446</v>
+        <v>1.025013535641333</v>
       </c>
       <c r="M13">
-        <v>0.8859698203705325</v>
+        <v>1.035792197055903</v>
       </c>
       <c r="N13">
-        <v>0.9366037218859481</v>
+        <v>1.028427161298056</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.903925342565001</v>
+        <v>1.020495647363068</v>
       </c>
       <c r="D14">
-        <v>0.9124194810967544</v>
+        <v>1.027941686236476</v>
       </c>
       <c r="E14">
-        <v>0.9256817917781013</v>
+        <v>1.021587181157819</v>
       </c>
       <c r="F14">
-        <v>0.8730949164299801</v>
+        <v>1.032509960665103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006237236897517</v>
+        <v>1.024147228209773</v>
       </c>
       <c r="J14">
-        <v>0.9379658361217549</v>
+        <v>1.027177145611835</v>
       </c>
       <c r="K14">
-        <v>0.9292257910841791</v>
+        <v>1.031542676979128</v>
       </c>
       <c r="L14">
-        <v>0.9421749365228382</v>
+        <v>1.025212332105667</v>
       </c>
       <c r="M14">
-        <v>0.8909060657746729</v>
+        <v>1.036093786035864</v>
       </c>
       <c r="N14">
-        <v>0.9392978551952329</v>
+        <v>1.028635854977469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9058414663376436</v>
+        <v>1.0206625779242</v>
       </c>
       <c r="D15">
-        <v>0.9144520684558732</v>
+        <v>1.02810459945437</v>
       </c>
       <c r="E15">
-        <v>0.9272630708895769</v>
+        <v>1.021729832210724</v>
       </c>
       <c r="F15">
-        <v>0.8761865722383408</v>
+        <v>1.032715603865367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007260357632922</v>
+        <v>1.024178142480032</v>
       </c>
       <c r="J15">
-        <v>0.9395544579704114</v>
+        <v>1.027305320775951</v>
       </c>
       <c r="K15">
-        <v>0.9311080371583427</v>
+        <v>1.031685304051103</v>
       </c>
       <c r="L15">
-        <v>0.9436202386495698</v>
+        <v>1.025334624850448</v>
       </c>
       <c r="M15">
-        <v>0.8938058382833853</v>
+        <v>1.036279090224524</v>
       </c>
       <c r="N15">
-        <v>0.9408887330691322</v>
+        <v>1.02876421216502</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9160789396510223</v>
+        <v>1.021630836462602</v>
       </c>
       <c r="D16">
-        <v>0.9252329658691736</v>
+        <v>1.029048626466231</v>
       </c>
       <c r="E16">
-        <v>0.9357076107556668</v>
+        <v>1.022557390810035</v>
       </c>
       <c r="F16">
-        <v>0.8924220035471965</v>
+        <v>1.033904835616365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012578946335498</v>
+        <v>1.024354081205251</v>
       </c>
       <c r="J16">
-        <v>0.9479798401289442</v>
+        <v>1.028047937597884</v>
       </c>
       <c r="K16">
-        <v>0.9410563450907261</v>
+        <v>1.032511098241596</v>
       </c>
       <c r="L16">
-        <v>0.9513031009744458</v>
+        <v>1.026043508203537</v>
       </c>
       <c r="M16">
-        <v>0.9090058365386434</v>
+        <v>1.037349831978979</v>
       </c>
       <c r="N16">
-        <v>0.9493260802367347</v>
+        <v>1.02950788358802</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9218795450170554</v>
+        <v>1.022235280667571</v>
       </c>
       <c r="D17">
-        <v>0.9312869187968892</v>
+        <v>1.029637126967469</v>
       </c>
       <c r="E17">
-        <v>0.9404905714053995</v>
+        <v>1.023074115849259</v>
       </c>
       <c r="F17">
-        <v>0.9014238288845545</v>
+        <v>1.0346440838005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015486802361033</v>
+        <v>1.024460938016726</v>
       </c>
       <c r="J17">
-        <v>0.9527101625540804</v>
+        <v>1.028510778683315</v>
       </c>
       <c r="K17">
-        <v>0.9466174727009118</v>
+        <v>1.033025293033517</v>
       </c>
       <c r="L17">
-        <v>0.9556291864735876</v>
+        <v>1.026485630819213</v>
       </c>
       <c r="M17">
-        <v>0.9174132709412326</v>
+        <v>1.038014656332473</v>
       </c>
       <c r="N17">
-        <v>0.9540631202622902</v>
+        <v>1.02997138196088</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9250896765270539</v>
+        <v>1.02258680297693</v>
       </c>
       <c r="D18">
-        <v>0.9346215479929018</v>
+        <v>1.029979082916396</v>
       </c>
       <c r="E18">
-        <v>0.9431373273959679</v>
+        <v>1.023374664873054</v>
       </c>
       <c r="F18">
-        <v>0.9063482568600354</v>
+        <v>1.035072872972838</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017064395409611</v>
+        <v>1.024522008157025</v>
       </c>
       <c r="J18">
-        <v>0.9553153044044461</v>
+        <v>1.028779681783451</v>
       </c>
       <c r="K18">
-        <v>0.9496730351234272</v>
+        <v>1.033323856131819</v>
       </c>
       <c r="L18">
-        <v>0.9580154995849639</v>
+        <v>1.026742607220432</v>
       </c>
       <c r="M18">
-        <v>0.9220062989064257</v>
+        <v>1.038399998814426</v>
       </c>
       <c r="N18">
-        <v>0.9566719617128974</v>
+        <v>1.030240666934263</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9261582888395232</v>
+        <v>1.022706487760299</v>
       </c>
       <c r="D19">
-        <v>0.9357292107268663</v>
+        <v>1.030095460717027</v>
       </c>
       <c r="E19">
-        <v>0.9440183939413943</v>
+        <v>1.023477001420868</v>
       </c>
       <c r="F19">
-        <v>0.9079787654679554</v>
+        <v>1.035218673646211</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017584624668579</v>
+        <v>1.024542618682766</v>
       </c>
       <c r="J19">
-        <v>0.9561805785363841</v>
+        <v>1.028871191261408</v>
       </c>
       <c r="K19">
-        <v>0.9506868129545264</v>
+        <v>1.033425429282281</v>
       </c>
       <c r="L19">
-        <v>0.9588086834434276</v>
+        <v>1.026830076703427</v>
       </c>
       <c r="M19">
-        <v>0.9235260924809058</v>
+        <v>1.038530978986177</v>
       </c>
       <c r="N19">
-        <v>0.957538464633351</v>
+        <v>1.030332306366174</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9212759948060554</v>
+        <v>1.022170537342119</v>
       </c>
       <c r="D20">
-        <v>0.9306587353904607</v>
+        <v>1.029574121864575</v>
       </c>
       <c r="E20">
-        <v>0.9399929349834362</v>
+        <v>1.023018764071806</v>
       </c>
       <c r="F20">
-        <v>0.9004934839796075</v>
+        <v>1.034565018381549</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015187694048133</v>
+        <v>1.024449603495485</v>
       </c>
       <c r="J20">
-        <v>0.9522193660471828</v>
+        <v>1.028461230535207</v>
       </c>
       <c r="K20">
-        <v>0.9460412578506854</v>
+        <v>1.032970265551757</v>
       </c>
       <c r="L20">
-        <v>0.9551799168007573</v>
+        <v>1.026438289195665</v>
       </c>
       <c r="M20">
-        <v>0.9165450366095378</v>
+        <v>1.037943579639027</v>
       </c>
       <c r="N20">
-        <v>0.9535716267680574</v>
+        <v>1.029921763448719</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9029896914553402</v>
+        <v>1.020415804851559</v>
       </c>
       <c r="D21">
-        <v>0.911425165789208</v>
+        <v>1.027863748734215</v>
       </c>
       <c r="E21">
-        <v>0.9249095352339461</v>
+        <v>1.021518953791474</v>
       </c>
       <c r="F21">
-        <v>0.8715788485460246</v>
+        <v>1.032411538607048</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.00573435024032</v>
+        <v>1.02413238225764</v>
       </c>
       <c r="J21">
-        <v>0.9371886954622701</v>
+        <v>1.027115824725502</v>
       </c>
       <c r="K21">
-        <v>0.9283042364749686</v>
+        <v>1.031474432273858</v>
       </c>
       <c r="L21">
-        <v>0.9414682986011804</v>
+        <v>1.025153831622132</v>
       </c>
       <c r="M21">
-        <v>0.8894834742862209</v>
+        <v>1.036005082952182</v>
       </c>
       <c r="N21">
-        <v>0.9385196109068723</v>
+        <v>1.028574447008444</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8881784706579949</v>
+        <v>1.019302903743108</v>
       </c>
       <c r="D22">
-        <v>0.895513353418585</v>
+        <v>1.026776304312529</v>
       </c>
       <c r="E22">
-        <v>0.9126712532014539</v>
+        <v>1.02056810686892</v>
       </c>
       <c r="F22">
-        <v>0.8469712981461072</v>
+        <v>1.031035443289092</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9974661685579869</v>
+        <v>1.023921481973563</v>
       </c>
       <c r="J22">
-        <v>0.9247525521906529</v>
+        <v>1.026260093611689</v>
       </c>
       <c r="K22">
-        <v>0.9134837564623257</v>
+        <v>1.030521426518493</v>
       </c>
       <c r="L22">
-        <v>0.9301967699045125</v>
+        <v>1.024337869448392</v>
       </c>
       <c r="M22">
-        <v>0.8663355949447886</v>
+        <v>1.034763851645161</v>
       </c>
       <c r="N22">
-        <v>0.9260658068853639</v>
+        <v>1.027717500658296</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8965145995195285</v>
+        <v>1.019893799756088</v>
       </c>
       <c r="D23">
-        <v>0.9045102848898667</v>
+        <v>1.027353937545918</v>
       </c>
       <c r="E23">
-        <v>0.9195628033298897</v>
+        <v>1.021072924389509</v>
       </c>
       <c r="F23">
-        <v>0.8609669576624275</v>
+        <v>1.031767057892356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.002192994797086</v>
+        <v>1.024034375725629</v>
       </c>
       <c r="J23">
-        <v>0.931784102180461</v>
+        <v>1.026714675433672</v>
       </c>
       <c r="K23">
-        <v>0.9218808235492471</v>
+        <v>1.031027833352782</v>
       </c>
       <c r="L23">
-        <v>0.936561271247514</v>
+        <v>1.024771230479314</v>
       </c>
       <c r="M23">
-        <v>0.8795144457303748</v>
+        <v>1.035423999922332</v>
       </c>
       <c r="N23">
-        <v>0.9331073424826875</v>
+        <v>1.028172728038607</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9215492372065724</v>
+        <v>1.022199795275191</v>
       </c>
       <c r="D24">
-        <v>0.9309431785466249</v>
+        <v>1.029602595193405</v>
       </c>
       <c r="E24">
-        <v>0.9402182280656014</v>
+        <v>1.023043777776201</v>
       </c>
       <c r="F24">
-        <v>0.900914852324712</v>
+        <v>1.034600752059025</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015323206384331</v>
+        <v>1.024454728963008</v>
       </c>
       <c r="J24">
-        <v>0.9524416013482174</v>
+        <v>1.02848362249757</v>
       </c>
       <c r="K24">
-        <v>0.9463021932280949</v>
+        <v>1.032995134296453</v>
       </c>
       <c r="L24">
-        <v>0.9553833366884745</v>
+        <v>1.026459683636431</v>
       </c>
       <c r="M24">
-        <v>0.9169382936138912</v>
+        <v>1.03797570366837</v>
       </c>
       <c r="N24">
-        <v>0.9537941776687107</v>
+        <v>1.029944187210237</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9435174262483633</v>
+        <v>1.024835106066279</v>
       </c>
       <c r="D25">
-        <v>0.9535663225827975</v>
+        <v>1.032160920550728</v>
       </c>
       <c r="E25">
-        <v>0.9583340338979753</v>
+        <v>1.025297678039597</v>
       </c>
       <c r="F25">
-        <v>0.9338868732784584</v>
+        <v>1.037795092101475</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025696200862649</v>
+        <v>1.024893240616407</v>
       </c>
       <c r="J25">
-        <v>0.9701075489513272</v>
+        <v>1.030494742141802</v>
       </c>
       <c r="K25">
-        <v>0.9669309339553221</v>
+        <v>1.035224930517181</v>
       </c>
       <c r="L25">
-        <v>0.9716155378483754</v>
+        <v>1.028383583101046</v>
       </c>
       <c r="M25">
-        <v>0.9476062323737235</v>
+        <v>1.04084136454989</v>
       </c>
       <c r="N25">
-        <v>0.9714852129437291</v>
+        <v>1.031958162875043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026905519074363</v>
+        <v>0.9582055998516603</v>
       </c>
       <c r="D2">
-        <v>1.034161649376047</v>
+        <v>0.9684475081032773</v>
       </c>
       <c r="E2">
-        <v>1.027069699967144</v>
+        <v>0.9704583394472459</v>
       </c>
       <c r="F2">
-        <v>1.040269403592229</v>
+        <v>0.9550144872146866</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02520380891933</v>
+        <v>1.032058967393589</v>
       </c>
       <c r="J2">
-        <v>1.032066356648624</v>
+        <v>0.9817125164724568</v>
       </c>
       <c r="K2">
-        <v>1.036961917775336</v>
+        <v>0.9803646529988572</v>
       </c>
       <c r="L2">
-        <v>1.029890503051378</v>
+        <v>0.9823451778539484</v>
       </c>
       <c r="M2">
-        <v>1.04305223070588</v>
+        <v>0.9671382762523442</v>
       </c>
       <c r="N2">
-        <v>1.033532009254746</v>
+        <v>0.9831066608498473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028391146146689</v>
+        <v>0.967793862163174</v>
       </c>
       <c r="D3">
-        <v>1.035591938284478</v>
+        <v>0.9780647798886801</v>
       </c>
       <c r="E3">
-        <v>1.028341937396994</v>
+        <v>0.9783822303927274</v>
       </c>
       <c r="F3">
-        <v>1.042024406689247</v>
+        <v>0.9684354668990095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025406818414385</v>
+        <v>1.035953496264794</v>
       </c>
       <c r="J3">
-        <v>1.033189186684463</v>
+        <v>0.9892027378249526</v>
       </c>
       <c r="K3">
-        <v>1.038199682250761</v>
+        <v>0.9889862388736381</v>
       </c>
       <c r="L3">
-        <v>1.030969131476395</v>
+        <v>0.9892993969999309</v>
       </c>
       <c r="M3">
-        <v>1.044615138637505</v>
+        <v>0.979488814154573</v>
       </c>
       <c r="N3">
-        <v>1.034656433838012</v>
+        <v>0.9906075191758039</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029344449228114</v>
+        <v>0.9736073357612286</v>
       </c>
       <c r="D4">
-        <v>1.036507257230878</v>
+        <v>0.9838594390008158</v>
       </c>
       <c r="E4">
-        <v>1.029158642315391</v>
+        <v>0.9831910687329624</v>
       </c>
       <c r="F4">
-        <v>1.043141095417076</v>
+        <v>0.9764319906574502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025527838821604</v>
+        <v>1.03820843706314</v>
       </c>
       <c r="J4">
-        <v>1.033907421830326</v>
+        <v>0.9937111422387171</v>
       </c>
       <c r="K4">
-        <v>1.038989939803724</v>
+        <v>0.9941566505930591</v>
       </c>
       <c r="L4">
-        <v>1.031660032118447</v>
+        <v>0.9934966874658548</v>
       </c>
       <c r="M4">
-        <v>1.045607134151081</v>
+        <v>0.9868234371073943</v>
       </c>
       <c r="N4">
-        <v>1.035375688960164</v>
+        <v>0.9951223260409573</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029743328404619</v>
+        <v>0.9759694771505922</v>
       </c>
       <c r="D5">
-        <v>1.036889649017363</v>
+        <v>0.9862060913765675</v>
       </c>
       <c r="E5">
-        <v>1.02950044509972</v>
+        <v>0.9851460863583242</v>
       </c>
       <c r="F5">
-        <v>1.043606066307424</v>
+        <v>0.9796506490481981</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025576248777343</v>
+        <v>1.039100507435176</v>
       </c>
       <c r="J5">
-        <v>1.034207399765616</v>
+        <v>0.9955357660899481</v>
       </c>
       <c r="K5">
-        <v>1.039319638050143</v>
+        <v>0.9962450371898343</v>
       </c>
       <c r="L5">
-        <v>1.031948819758312</v>
+        <v>0.9951979588299266</v>
       </c>
       <c r="M5">
-        <v>1.046019586661673</v>
+        <v>0.9897700961239719</v>
       </c>
       <c r="N5">
-        <v>1.03567609289853</v>
+        <v>0.9969495410673445</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029810191881047</v>
+        <v>0.9763615813255713</v>
       </c>
       <c r="D6">
-        <v>1.03695371382193</v>
+        <v>0.9865951842327944</v>
       </c>
       <c r="E6">
-        <v>1.029557745560343</v>
+        <v>0.9854706734324363</v>
       </c>
       <c r="F6">
-        <v>1.043683875172294</v>
+        <v>0.9801832150043498</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025584232580588</v>
+        <v>1.039247196346641</v>
       </c>
       <c r="J6">
-        <v>1.034257652573288</v>
+        <v>0.9958382351494719</v>
       </c>
       <c r="K6">
-        <v>1.039374848428394</v>
+        <v>0.996590994689333</v>
       </c>
       <c r="L6">
-        <v>1.03199721126431</v>
+        <v>0.9954801255383212</v>
       </c>
       <c r="M6">
-        <v>1.046088571668833</v>
+        <v>0.9902573322800156</v>
       </c>
       <c r="N6">
-        <v>1.035726417070953</v>
+        <v>0.9972524396676263</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029349786462355</v>
+        <v>0.9736392069704697</v>
       </c>
       <c r="D7">
-        <v>1.036512376195754</v>
+        <v>0.9838911314513115</v>
       </c>
       <c r="E7">
-        <v>1.029163215525029</v>
+        <v>0.9832174425212336</v>
       </c>
       <c r="F7">
-        <v>1.043147325947278</v>
+        <v>0.9764755361663914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025528495360574</v>
+        <v>1.03822056804497</v>
       </c>
       <c r="J7">
-        <v>1.033911437855223</v>
+        <v>0.9937357890487294</v>
       </c>
       <c r="K7">
-        <v>1.038994355139646</v>
+        <v>0.9941848764375963</v>
       </c>
       <c r="L7">
-        <v>1.031663897437656</v>
+        <v>0.9935196580633396</v>
       </c>
       <c r="M7">
-        <v>1.045612663314417</v>
+        <v>0.9868633247963977</v>
       </c>
       <c r="N7">
-        <v>1.035379710688278</v>
+        <v>0.9951470078522667</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027409265013405</v>
+        <v>0.9615349512124082</v>
       </c>
       <c r="D8">
-        <v>1.034647145644525</v>
+        <v>0.971795446310626</v>
       </c>
       <c r="E8">
-        <v>1.027501020740754</v>
+        <v>0.9732088057900065</v>
       </c>
       <c r="F8">
-        <v>1.040866458685719</v>
+        <v>0.9597074677826779</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02527456339692</v>
+        <v>1.033435257329252</v>
       </c>
       <c r="J8">
-        <v>1.032447556515343</v>
+        <v>0.9843209869467686</v>
       </c>
       <c r="K8">
-        <v>1.037382449024848</v>
+        <v>0.9833715231564105</v>
       </c>
       <c r="L8">
-        <v>1.030256501106087</v>
+        <v>0.9847643407549704</v>
       </c>
       <c r="M8">
-        <v>1.043584446363668</v>
+        <v>0.9714623780370631</v>
       </c>
       <c r="N8">
-        <v>1.033913750468985</v>
+        <v>0.9857188356514281</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023927381277334</v>
+        <v>0.9364550280409973</v>
       </c>
       <c r="D9">
-        <v>1.031281148341646</v>
+        <v>0.9463438358379794</v>
       </c>
       <c r="E9">
-        <v>1.024521130930631</v>
+        <v>0.9525087599783876</v>
       </c>
       <c r="F9">
-        <v>1.036700321057757</v>
+        <v>0.923474293459445</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024747470173962</v>
+        <v>1.022472848128587</v>
       </c>
       <c r="J9">
-        <v>1.029803328294307</v>
+        <v>0.9644701012716278</v>
       </c>
       <c r="K9">
-        <v>1.034459196853044</v>
+        <v>0.9603718794247792</v>
       </c>
       <c r="L9">
-        <v>1.027721614638217</v>
+        <v>0.9664224003785864</v>
       </c>
       <c r="M9">
-        <v>1.039860615989295</v>
+        <v>0.9379442799927317</v>
       </c>
       <c r="N9">
-        <v>1.031265767140578</v>
+        <v>0.9658397594417005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021562386895395</v>
+        <v>0.9153968713564977</v>
       </c>
       <c r="D10">
-        <v>1.02898194250757</v>
+        <v>0.9245186162470048</v>
       </c>
       <c r="E10">
-        <v>1.022498880460239</v>
+        <v>0.935145147187822</v>
       </c>
       <c r="F10">
-        <v>1.033820966908499</v>
+        <v>0.8913544700269667</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024341834801052</v>
+        <v>1.012232105397479</v>
       </c>
       <c r="J10">
-        <v>1.027995487332851</v>
+        <v>0.9474216225389922</v>
       </c>
       <c r="K10">
-        <v>1.03245280460864</v>
+        <v>0.9403989620273556</v>
       </c>
       <c r="L10">
-        <v>1.025993420788633</v>
+        <v>0.9507931790743325</v>
       </c>
       <c r="M10">
-        <v>1.03727436901979</v>
+        <v>0.9080078253518029</v>
       </c>
       <c r="N10">
-        <v>1.029455358837595</v>
+        <v>0.9487670699137766</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020527524682096</v>
+        <v>0.9042953504496312</v>
       </c>
       <c r="D11">
-        <v>1.027972800001205</v>
+        <v>0.9128123606966431</v>
       </c>
       <c r="E11">
-        <v>1.021614421518891</v>
+        <v>0.9259871636639024</v>
       </c>
       <c r="F11">
-        <v>1.032549244471438</v>
+        <v>0.8736932864738579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024153144712362</v>
+        <v>1.006435506775825</v>
       </c>
       <c r="J11">
-        <v>1.027201625419682</v>
+        <v>0.9382729032310799</v>
       </c>
       <c r="K11">
-        <v>1.031569919061869</v>
+        <v>0.9295897785974945</v>
       </c>
       <c r="L11">
-        <v>1.02523568709829</v>
+        <v>0.942454217468309</v>
       </c>
       <c r="M11">
-        <v>1.036129187870147</v>
+        <v>0.8914674300294597</v>
       </c>
       <c r="N11">
-        <v>1.028660369549451</v>
+        <v>0.9396053583750745</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020141469608562</v>
+        <v>0.8996701064839535</v>
       </c>
       <c r="D12">
-        <v>1.027595878143046</v>
+        <v>0.9078876544307204</v>
       </c>
       <c r="E12">
-        <v>1.021284539011665</v>
+        <v>0.9221689906757677</v>
       </c>
       <c r="F12">
-        <v>1.032073053776738</v>
+        <v>0.8661651826838949</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024081079320785</v>
+        <v>1.003932365250179</v>
       </c>
       <c r="J12">
-        <v>1.026905055365416</v>
+        <v>0.9344238139014645</v>
       </c>
       <c r="K12">
-        <v>1.031239816524591</v>
+        <v>0.9250213568571907</v>
       </c>
       <c r="L12">
-        <v>1.024952786681808</v>
+        <v>0.9389563621231215</v>
       </c>
       <c r="M12">
-        <v>1.035699947316765</v>
+        <v>0.8844002721924135</v>
       </c>
       <c r="N12">
-        <v>1.028363378331691</v>
+        <v>0.9357508028971142</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020224355534016</v>
+        <v>0.9006911363657913</v>
       </c>
       <c r="D13">
-        <v>1.027676824055171</v>
+        <v>0.9089773669389515</v>
       </c>
       <c r="E13">
-        <v>1.021355361769168</v>
+        <v>0.9230120379726182</v>
       </c>
       <c r="F13">
-        <v>1.032175372143831</v>
+        <v>0.8678361769976918</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024096627370096</v>
+        <v>1.004489606608911</v>
       </c>
       <c r="J13">
-        <v>1.026968747881103</v>
+        <v>0.9352755233651679</v>
       </c>
       <c r="K13">
-        <v>1.031310723036918</v>
+        <v>0.9260333403802905</v>
       </c>
       <c r="L13">
-        <v>1.025013535641333</v>
+        <v>0.9397297990576453</v>
       </c>
       <c r="M13">
-        <v>1.035792197055903</v>
+        <v>0.8859698203705333</v>
       </c>
       <c r="N13">
-        <v>1.028427161298056</v>
+        <v>0.9366037218859486</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020495647363068</v>
+        <v>0.9039253425650015</v>
       </c>
       <c r="D14">
-        <v>1.027941686236476</v>
+        <v>0.9124194810967552</v>
       </c>
       <c r="E14">
-        <v>1.021587181157819</v>
+        <v>0.9256817917781014</v>
       </c>
       <c r="F14">
-        <v>1.032509960665103</v>
+        <v>0.8730949164299806</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024147228209773</v>
+        <v>1.006237236897517</v>
       </c>
       <c r="J14">
-        <v>1.027177145611835</v>
+        <v>0.9379658361217554</v>
       </c>
       <c r="K14">
-        <v>1.031542676979128</v>
+        <v>0.9292257910841798</v>
       </c>
       <c r="L14">
-        <v>1.025212332105667</v>
+        <v>0.9421749365228385</v>
       </c>
       <c r="M14">
-        <v>1.036093786035864</v>
+        <v>0.8909060657746734</v>
       </c>
       <c r="N14">
-        <v>1.028635854977469</v>
+        <v>0.9392978551952336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0206625779242</v>
+        <v>0.9058414663376421</v>
       </c>
       <c r="D15">
-        <v>1.02810459945437</v>
+        <v>0.914452068455872</v>
       </c>
       <c r="E15">
-        <v>1.021729832210724</v>
+        <v>0.9272630708895756</v>
       </c>
       <c r="F15">
-        <v>1.032715603865367</v>
+        <v>0.8761865722383391</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024178142480032</v>
+        <v>1.007260357632921</v>
       </c>
       <c r="J15">
-        <v>1.027305320775951</v>
+        <v>0.9395544579704103</v>
       </c>
       <c r="K15">
-        <v>1.031685304051103</v>
+        <v>0.9311080371583415</v>
       </c>
       <c r="L15">
-        <v>1.025334624850448</v>
+        <v>0.9436202386495683</v>
       </c>
       <c r="M15">
-        <v>1.036279090224524</v>
+        <v>0.8938058382833837</v>
       </c>
       <c r="N15">
-        <v>1.02876421216502</v>
+        <v>0.9408887330691311</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021630836462602</v>
+        <v>0.9160789396510218</v>
       </c>
       <c r="D16">
-        <v>1.029048626466231</v>
+        <v>0.9252329658691734</v>
       </c>
       <c r="E16">
-        <v>1.022557390810035</v>
+        <v>0.9357076107556661</v>
       </c>
       <c r="F16">
-        <v>1.033904835616365</v>
+        <v>0.892422003547196</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024354081205251</v>
+        <v>1.012578946335498</v>
       </c>
       <c r="J16">
-        <v>1.028047937597884</v>
+        <v>0.9479798401289439</v>
       </c>
       <c r="K16">
-        <v>1.032511098241596</v>
+        <v>0.9410563450907259</v>
       </c>
       <c r="L16">
-        <v>1.026043508203537</v>
+        <v>0.951303100974445</v>
       </c>
       <c r="M16">
-        <v>1.037349831978979</v>
+        <v>0.909005836538643</v>
       </c>
       <c r="N16">
-        <v>1.02950788358802</v>
+        <v>0.9493260802367344</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022235280667571</v>
+        <v>0.9218795450170547</v>
       </c>
       <c r="D17">
-        <v>1.029637126967469</v>
+        <v>0.9312869187968883</v>
       </c>
       <c r="E17">
-        <v>1.023074115849259</v>
+        <v>0.9404905714053988</v>
       </c>
       <c r="F17">
-        <v>1.0346440838005</v>
+        <v>0.9014238288845541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024460938016726</v>
+        <v>1.015486802361033</v>
       </c>
       <c r="J17">
-        <v>1.028510778683315</v>
+        <v>0.9527101625540796</v>
       </c>
       <c r="K17">
-        <v>1.033025293033517</v>
+        <v>0.946617472700911</v>
       </c>
       <c r="L17">
-        <v>1.026485630819213</v>
+        <v>0.9556291864735867</v>
       </c>
       <c r="M17">
-        <v>1.038014656332473</v>
+        <v>0.9174132709412323</v>
       </c>
       <c r="N17">
-        <v>1.02997138196088</v>
+        <v>0.9540631202622895</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02258680297693</v>
+        <v>0.9250896765270545</v>
       </c>
       <c r="D18">
-        <v>1.029979082916396</v>
+        <v>0.9346215479929026</v>
       </c>
       <c r="E18">
-        <v>1.023374664873054</v>
+        <v>0.9431373273959681</v>
       </c>
       <c r="F18">
-        <v>1.035072872972838</v>
+        <v>0.9063482568600358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024522008157025</v>
+        <v>1.017064395409611</v>
       </c>
       <c r="J18">
-        <v>1.028779681783451</v>
+        <v>0.9553153044044469</v>
       </c>
       <c r="K18">
-        <v>1.033323856131819</v>
+        <v>0.9496730351234279</v>
       </c>
       <c r="L18">
-        <v>1.026742607220432</v>
+        <v>0.9580154995849641</v>
       </c>
       <c r="M18">
-        <v>1.038399998814426</v>
+        <v>0.9220062989064262</v>
       </c>
       <c r="N18">
-        <v>1.030240666934263</v>
+        <v>0.956671961712898</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022706487760299</v>
+        <v>0.9261582888395231</v>
       </c>
       <c r="D19">
-        <v>1.030095460717027</v>
+        <v>0.9357292107268664</v>
       </c>
       <c r="E19">
-        <v>1.023477001420868</v>
+        <v>0.9440183939413942</v>
       </c>
       <c r="F19">
-        <v>1.035218673646211</v>
+        <v>0.9079787654679554</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024542618682766</v>
+        <v>1.017584624668579</v>
       </c>
       <c r="J19">
-        <v>1.028871191261408</v>
+        <v>0.9561805785363841</v>
       </c>
       <c r="K19">
-        <v>1.033425429282281</v>
+        <v>0.9506868129545264</v>
       </c>
       <c r="L19">
-        <v>1.026830076703427</v>
+        <v>0.9588086834434275</v>
       </c>
       <c r="M19">
-        <v>1.038530978986177</v>
+        <v>0.9235260924809057</v>
       </c>
       <c r="N19">
-        <v>1.030332306366174</v>
+        <v>0.957538464633351</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022170537342119</v>
+        <v>0.9212759948060556</v>
       </c>
       <c r="D20">
-        <v>1.029574121864575</v>
+        <v>0.9306587353904611</v>
       </c>
       <c r="E20">
-        <v>1.023018764071806</v>
+        <v>0.9399929349834363</v>
       </c>
       <c r="F20">
-        <v>1.034565018381549</v>
+        <v>0.9004934839796079</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024449603495485</v>
+        <v>1.015187694048133</v>
       </c>
       <c r="J20">
-        <v>1.028461230535207</v>
+        <v>0.952219366047183</v>
       </c>
       <c r="K20">
-        <v>1.032970265551757</v>
+        <v>0.9460412578506857</v>
       </c>
       <c r="L20">
-        <v>1.026438289195665</v>
+        <v>0.9551799168007574</v>
       </c>
       <c r="M20">
-        <v>1.037943579639027</v>
+        <v>0.916545036609538</v>
       </c>
       <c r="N20">
-        <v>1.029921763448719</v>
+        <v>0.9535716267680578</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020415804851559</v>
+        <v>0.9029896914553394</v>
       </c>
       <c r="D21">
-        <v>1.027863748734215</v>
+        <v>0.9114251657892071</v>
       </c>
       <c r="E21">
-        <v>1.021518953791474</v>
+        <v>0.9249095352339456</v>
       </c>
       <c r="F21">
-        <v>1.032411538607048</v>
+        <v>0.8715788485460239</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02413238225764</v>
+        <v>1.00573435024032</v>
       </c>
       <c r="J21">
-        <v>1.027115824725502</v>
+        <v>0.9371886954622693</v>
       </c>
       <c r="K21">
-        <v>1.031474432273858</v>
+        <v>0.9283042364749678</v>
       </c>
       <c r="L21">
-        <v>1.025153831622132</v>
+        <v>0.9414682986011798</v>
       </c>
       <c r="M21">
-        <v>1.036005082952182</v>
+        <v>0.8894834742862199</v>
       </c>
       <c r="N21">
-        <v>1.028574447008444</v>
+        <v>0.9385196109068716</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019302903743108</v>
+        <v>0.8881784706579949</v>
       </c>
       <c r="D22">
-        <v>1.026776304312529</v>
+        <v>0.8955133534185851</v>
       </c>
       <c r="E22">
-        <v>1.02056810686892</v>
+        <v>0.912671253201454</v>
       </c>
       <c r="F22">
-        <v>1.031035443289092</v>
+        <v>0.8469712981461074</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023921481973563</v>
+        <v>0.997466168557987</v>
       </c>
       <c r="J22">
-        <v>1.026260093611689</v>
+        <v>0.924752552190653</v>
       </c>
       <c r="K22">
-        <v>1.030521426518493</v>
+        <v>0.9134837564623259</v>
       </c>
       <c r="L22">
-        <v>1.024337869448392</v>
+        <v>0.9301967699045124</v>
       </c>
       <c r="M22">
-        <v>1.034763851645161</v>
+        <v>0.8663355949447892</v>
       </c>
       <c r="N22">
-        <v>1.027717500658296</v>
+        <v>0.926065806885364</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019893799756088</v>
+        <v>0.8965145995195273</v>
       </c>
       <c r="D23">
-        <v>1.027353937545918</v>
+        <v>0.9045102848898657</v>
       </c>
       <c r="E23">
-        <v>1.021072924389509</v>
+        <v>0.9195628033298888</v>
       </c>
       <c r="F23">
-        <v>1.031767057892356</v>
+        <v>0.8609669576624267</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024034375725629</v>
+        <v>1.002192994797086</v>
       </c>
       <c r="J23">
-        <v>1.026714675433672</v>
+        <v>0.9317841021804601</v>
       </c>
       <c r="K23">
-        <v>1.031027833352782</v>
+        <v>0.9218808235492462</v>
       </c>
       <c r="L23">
-        <v>1.024771230479314</v>
+        <v>0.9365612712475132</v>
       </c>
       <c r="M23">
-        <v>1.035423999922332</v>
+        <v>0.879514445730374</v>
       </c>
       <c r="N23">
-        <v>1.028172728038607</v>
+        <v>0.9331073424826867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022199795275191</v>
+        <v>0.9215492372065708</v>
       </c>
       <c r="D24">
-        <v>1.029602595193405</v>
+        <v>0.9309431785466232</v>
       </c>
       <c r="E24">
-        <v>1.023043777776201</v>
+        <v>0.9402182280656001</v>
       </c>
       <c r="F24">
-        <v>1.034600752059025</v>
+        <v>0.9009148523247102</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024454728963008</v>
+        <v>1.015323206384331</v>
       </c>
       <c r="J24">
-        <v>1.02848362249757</v>
+        <v>0.952441601348216</v>
       </c>
       <c r="K24">
-        <v>1.032995134296453</v>
+        <v>0.9463021932280933</v>
       </c>
       <c r="L24">
-        <v>1.026459683636431</v>
+        <v>0.9553833366884732</v>
       </c>
       <c r="M24">
-        <v>1.03797570366837</v>
+        <v>0.9169382936138896</v>
       </c>
       <c r="N24">
-        <v>1.029944187210237</v>
+        <v>0.9537941776687091</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024835106066279</v>
+        <v>0.9435174262483625</v>
       </c>
       <c r="D25">
-        <v>1.032160920550728</v>
+        <v>0.9535663225827966</v>
       </c>
       <c r="E25">
-        <v>1.025297678039597</v>
+        <v>0.9583340338979747</v>
       </c>
       <c r="F25">
-        <v>1.037795092101475</v>
+        <v>0.9338868732784573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024893240616407</v>
+        <v>1.025696200862649</v>
       </c>
       <c r="J25">
-        <v>1.030494742141802</v>
+        <v>0.9701075489513262</v>
       </c>
       <c r="K25">
-        <v>1.035224930517181</v>
+        <v>0.966930933955321</v>
       </c>
       <c r="L25">
-        <v>1.028383583101046</v>
+        <v>0.9716155378483746</v>
       </c>
       <c r="M25">
-        <v>1.04084136454989</v>
+        <v>0.9476062323737224</v>
       </c>
       <c r="N25">
-        <v>1.031958162875043</v>
+        <v>0.9714852129437281</v>
       </c>
     </row>
   </sheetData>
